--- a/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-04-02.xlsx
+++ b/Documentation/Management/Communications/Meetings/Minutes of Meeting - 2011-04-02.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Minutes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues From Last Minutes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="1">Minutes!#REF!</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
   <si>
     <t>FYP Project Meeting Minutes</t>
   </si>
@@ -81,9 +81,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -286,6 +283,63 @@
   </si>
   <si>
     <t>Individuals are assigned specific task.</t>
+  </si>
+  <si>
+    <t>Deliverables</t>
+  </si>
+  <si>
+    <t>Project Plan, Quality Plan, User Requirement Specs.
+- Hard copies: hand in during quality audit. 
+- Soft copies: upload to team's folder under Deliverables workbin, SE Project module before Saturday 9th April.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Audit </t>
+  </si>
+  <si>
+    <t>We're required to present our project files for quality audit.</t>
+  </si>
+  <si>
+    <t>On Saturday 2nd April, our team's slot is 9.45 - 10.30am, meeting room S3-2 on the 3rd floor
+-Assessment criteria are written in attached PPT file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We should address the following: 
+• Introduction to the project (project background etc).
+• Overview of the user requirements.
+• Discussion of project risks.
+• Discussion of technical challenges.
+• Discussion of your overall project strategies (both management and technical).
+• Presentation of your projects plans, including estimates and schedule. Your presentation should include a justification for your effort estimates.
+• Report on overall project progress so far against the plans (planned versus actuals), including a discussion of reasons for differences (if any).
+• Discussion of management problems that may have occurred during this first phase of the project (such as the need to de-scope, loss of man-power, falling behind schedule etc), including a description of your solutions.
+</t>
+  </si>
+  <si>
+    <t>On Saturday 9th April, our team's slot is 10.00 - 10.45 am, classroom 3-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peer Assessment Form </t>
+  </si>
+  <si>
+    <t>Soft copy must be uploaded to our team's folder in the Peer Assessment workbin.</t>
+  </si>
+  <si>
+    <t>(attached in the email): due by 25th April 2011</t>
+  </si>
+  <si>
+    <t>Printing and signing final copy</t>
+  </si>
+  <si>
+    <t>After Tran Ba Tien emails the final copy that needs Maung Tin Kyaw Oo’s signature, Maung Tin Kyaw Oo  is to print out and sign it.</t>
+  </si>
+  <si>
+    <t>Risk Analysis</t>
+  </si>
+  <si>
+    <t>Work on the risk analysis and send to Tran Ba Tien before Friday</t>
   </si>
 </sst>
 </file>
@@ -347,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -367,6 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -772,7 +827,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -811,19 +866,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -831,19 +886,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -851,19 +906,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -871,19 +926,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.2">
@@ -891,19 +946,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -911,19 +966,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -931,19 +986,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -951,19 +1006,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -971,19 +1026,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -991,19 +1046,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -1011,19 +1066,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -1031,19 +1086,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="36" x14ac:dyDescent="0.2">
@@ -1051,19 +1106,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -1071,19 +1126,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1091,19 +1146,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.2">
@@ -1111,19 +1166,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -1131,19 +1186,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="36" x14ac:dyDescent="0.2">
@@ -1151,19 +1206,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -1171,19 +1226,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -1191,19 +1246,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -1211,16 +1266,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>17</v>
@@ -1231,16 +1286,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
@@ -1251,16 +1306,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>17</v>
@@ -1271,16 +1326,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>17</v>
@@ -1291,16 +1346,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>17</v>
@@ -1314,12 +1369,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="156.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>